--- a/Docs/colors.xlsx
+++ b/Docs/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projets\Matematiks\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDBA24A-F8F8-4254-ADE9-A2EC6C08F8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B262B11F-D902-47E3-9FA4-07C54DD1A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27736330-BB50-4F6B-9B71-441AD6690D37}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +69,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +124,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC071CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D8DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEA4B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE67689"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE4A63"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5213A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF751525"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF440C15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +206,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -166,16 +237,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF440C15"/>
+      <color rgb="FF751525"/>
+      <color rgb="FFB5213A"/>
+      <color rgb="FFDE4A63"/>
+      <color rgb="FFE67689"/>
+      <color rgb="FFEEA4B0"/>
+      <color rgb="FFF8D8DD"/>
       <color rgb="FFC071CD"/>
       <color rgb="FFC45F54"/>
       <color rgb="FFD4CC22"/>
-      <color rgb="FFF4F2F3"/>
-      <color rgb="FF18122C"/>
-      <color rgb="FF141022"/>
-      <color rgb="FFA95CC8"/>
-      <color rgb="FFC05885"/>
-      <color rgb="FFC15B5B"/>
-      <color rgb="FFC8646E"/>
     </mruColors>
   </colors>
   <extLst>
@@ -509,7 +580,7 @@
   <dimension ref="F1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -552,7 +623,35 @@
       </c>
     </row>
     <row r="5" spans="6:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="6:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="6:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10">
+        <v>4</v>
+      </c>
+      <c r="J6" s="11">
+        <v>5</v>
+      </c>
+      <c r="K6" s="12">
+        <v>6</v>
+      </c>
+      <c r="L6" s="13">
+        <v>7</v>
+      </c>
+      <c r="M6" s="14">
+        <v>8</v>
+      </c>
+      <c r="N6" s="15">
+        <v>9</v>
+      </c>
+    </row>
     <row r="7" spans="6:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="6:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="6:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
